--- a/Leetcode Statistics.xlsx
+++ b/Leetcode Statistics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kyeap/PycharmProjects/Mercaptan/venv/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kyeap/PycharmProjects/CS_practice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0FCBCA-1F7C-E14B-89B4-0D6D9AFE9114}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68491A39-5EDF-1445-8447-DF3753298ACE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14080" xr2:uid="{30BB4D98-D89E-914B-914E-22DDD7925588}"/>
+    <workbookView xWindow="940" yWindow="500" windowWidth="24660" windowHeight="14080" activeTab="6" xr2:uid="{30BB4D98-D89E-914B-914E-22DDD7925588}"/>
   </bookViews>
   <sheets>
     <sheet name="Leetcode" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="Weakness" sheetId="3" r:id="rId3"/>
     <sheet name="Leetcode_Discuss" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Linked_List" sheetId="6" r:id="rId6"/>
+    <sheet name="Facebook" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="214">
   <si>
     <t>Date</t>
   </si>
@@ -620,6 +622,67 @@
   </si>
   <si>
     <t>String Logic</t>
+  </si>
+  <si>
+    <t>Tricks</t>
+  </si>
+  <si>
+    <t>Think of slow and fast pointer</t>
+  </si>
+  <si>
+    <t>dictionary to save address of nodes</t>
+  </si>
+  <si>
+    <t>Rotational Cipher</t>
+  </si>
+  <si>
+    <t>Reverse Subarray</t>
+  </si>
+  <si>
+    <t>Triangle</t>
+  </si>
+  <si>
+    <t>Sometimes going the other direction can help</t>
+  </si>
+  <si>
+    <t>Also the recurrence relation do the opposite direction</t>
+  </si>
+  <si>
+    <t>to do offset think of the equation for the number. What equation needed to to get from real number to dp rep number index</t>
+  </si>
+  <si>
+    <t>pseudocode. High level stuff so loops makes sense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After pseudocode, think if the code would be long. Aka too many cases. Always think of opposite direction to store results to see if less code. </t>
+  </si>
+  <si>
+    <t>use the index of array as marker. Since all numbers are positive, you can get original value of number out with abs. The negative is used as a marker.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can also slot number in correct place with -1. if num already correct spot then you know it's good and can move on. When you make second pass it you add one to value should get value back. </t>
+  </si>
+  <si>
+    <t>One clever way instead of creating another deque -   while queue:
+    value = 0
+    n = len(queue)
+    for i in range(n):
+      current = queue.popleft()</t>
+  </si>
+  <si>
+    <t>7. Binary Tree</t>
+  </si>
+  <si>
+    <t>5. duplicate value O(1) space</t>
+  </si>
+  <si>
+    <t>1. longest distinct sum</t>
+  </si>
+  <si>
+    <t>2. square sums</t>
+  </si>
+  <si>
+    <t>level order traversal can be done with queue</t>
   </si>
 </sst>
 </file>
@@ -664,10 +727,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -983,10 +1050,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AB431BC-A628-FD42-99BE-7330A7483771}">
-  <dimension ref="A1:K52"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2273,6 +2340,11 @@
       </c>
       <c r="F52" t="s">
         <v>193</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="3">
+        <v>44148</v>
       </c>
     </row>
   </sheetData>
@@ -2614,4 +2686,128 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5CA028B-F164-1B43-A4DB-18B0CB488EB6}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC0EDC9-119D-A245-A13B-C065CC32334A}">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="126.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="162.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G2" t="s">
+        <v>201</v>
+      </c>
+      <c r="H2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F3">
+        <v>494</v>
+      </c>
+      <c r="G3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>212</v>
+      </c>
+      <c r="G4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>211</v>
+      </c>
+      <c r="G5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>210</v>
+      </c>
+      <c r="G6" t="s">
+        <v>206</v>
+      </c>
+      <c r="H6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>209</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G10" t="s">
+        <v>213</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>